--- a/Sura/DataSource - Validar Formularios - Endoso Exclusión de Riesgo.xlsx
+++ b/Sura/DataSource - Validar Formularios - Endoso Exclusión de Riesgo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E86DFC73-FF12-43FB-B966-4B45255BF314}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8CA3BA-605C-484E-8F9F-B91278EEC343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B13DBF4F-94E4-492C-8C80-2D5D191E3FC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Ambiente</t>
   </si>
@@ -42,19 +42,16 @@
     <t>NroPoliza</t>
   </si>
   <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>su</t>
   </si>
   <si>
-    <t>silverarrow</t>
-  </si>
-  <si>
-    <t>04104013552</t>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>gw</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,30 +449,36 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
+      <c r="E2" s="3">
+        <v>4104016708</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2B505A0B-9B7D-4363-AAEA-C5C1F3ABBCDE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005D14109F030C894A8FB23AEDD2207AD5" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9366a86cbae12d877ccd3d6affdb7c83">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7b72a260-efee-44d9-a726-ffe7af3e07fa" xmlns:ns4="629ec8ac-12f5-4476-8e71-e199cbe65bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f8570fae79e3248046fc1b545e7df78" ns3:_="" ns4:_="">
     <xsd:import namespace="7b72a260-efee-44d9-a726-ffe7af3e07fa"/>
@@ -646,15 +649,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -662,6 +656,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B59B7D3-AC7F-4FE2-A116-0BB1A6263053}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41F22E71-237E-4056-BC97-A80034E0F593}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -680,14 +682,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B59B7D3-AC7F-4FE2-A116-0BB1A6263053}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFA749EE-00C8-48EA-AB73-06CAF85C17DA}">
   <ds:schemaRefs>
